--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217328.461311573</v>
+        <v>214374.359211351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9144617.86140932</v>
+        <v>8948454.604323694</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441951.88648734</v>
+        <v>20249692.27821771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3912452.918439421</v>
+        <v>3981288.501028868</v>
       </c>
     </row>
     <row r="11">
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>128.3949655257664</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="T22" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T22" t="n">
-        <v>119.5504549011778</v>
       </c>
       <c r="U22" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
       <c r="E24" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>60.36402868517423</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="X25" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="C27" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="D27" t="n">
-        <v>51.85199244433831</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="X27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,61 +2712,61 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>119.5504549011778</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>81.39848696833002</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,53 +2803,53 @@
         <v>135.7293992974318</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>119.5504549011779</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="31">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="D31" t="n">
-        <v>119.5504549011778</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>62.7465679129816</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>51.85199244433822</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="34">
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>81.39848696832991</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="Y36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V37" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W37" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="I38" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="C39" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="40">
@@ -3661,73 +3663,73 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>135.7293992974317</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>119.5504549011778</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>135.7293992974318</v>
-      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>29.81855126207275</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>121.9329941289853</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3898,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.39848696833</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3940,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>54.23453167214555</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>60.09378870120887</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C20" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D20" t="n">
         <v>10.85835194379454</v>
@@ -5753,13 +5755,13 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K20" t="n">
-        <v>179.7411328942751</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L20" t="n">
-        <v>179.7411328942751</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="M20" t="n">
-        <v>179.7411328942751</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="N20" t="n">
         <v>314.1132381987326</v>
@@ -5780,22 +5782,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T20" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U20" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V20" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W20" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X20" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y20" t="n">
-        <v>422.159561936012</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>131.6163871975096</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="C21" t="n">
-        <v>10.85835194379454</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="D21" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="E21" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="F21" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="G21" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="H21" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I21" t="n">
         <v>10.85835194379454</v>
@@ -5853,28 +5855,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9175971897271</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="U21" t="n">
-        <v>542.9175971897271</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="V21" t="n">
-        <v>405.8171938589879</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="W21" t="n">
-        <v>268.7167905282488</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="X21" t="n">
-        <v>131.6163871975096</v>
+        <v>216.3410405844727</v>
       </c>
       <c r="Y21" t="n">
-        <v>131.6163871975096</v>
+        <v>216.3410405844727</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5913,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L22" t="n">
         <v>145.0696190886975</v>
@@ -5920,22 +5922,22 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N22" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O22" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P22" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q22" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R22" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S22" t="n">
-        <v>405.8171938589878</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T22" t="n">
         <v>285.0591586052728</v>
@@ -5944,7 +5946,7 @@
         <v>147.9587552745337</v>
       </c>
       <c r="V22" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W22" t="n">
         <v>10.85835194379454</v>
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.97810069336293</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C23" t="n">
-        <v>40.97810069336293</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D23" t="n">
-        <v>40.97810069336293</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E23" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F23" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G23" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H23" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I23" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J23" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K23" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L23" t="n">
-        <v>45.36902758981768</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M23" t="n">
-        <v>179.7411328942751</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="N23" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O23" t="n">
         <v>448.4853435031901</v>
@@ -6011,28 +6013,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V23" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W23" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X23" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.97810069336293</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.6163871975096</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="C24" t="n">
-        <v>131.6163871975096</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="D24" t="n">
-        <v>131.6163871975096</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="E24" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="F24" t="n">
-        <v>10.85835194379454</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="G24" t="n">
         <v>10.85835194379454</v>
@@ -6072,46 +6074,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L24" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M24" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N24" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O24" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P24" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q24" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T24" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U24" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="V24" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="W24" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="X24" t="n">
-        <v>405.8171938589879</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="Y24" t="n">
-        <v>268.7167905282488</v>
+        <v>208.9325216231946</v>
       </c>
     </row>
     <row r="25">
@@ -6160,31 +6162,31 @@
         <v>381.4854669658995</v>
       </c>
       <c r="O25" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P25" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q25" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R25" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="S25" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="T25" t="n">
-        <v>405.8171938589878</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="U25" t="n">
-        <v>405.8171938589878</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="V25" t="n">
-        <v>268.7167905282487</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="W25" t="n">
-        <v>131.6163871975095</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X25" t="n">
         <v>10.85835194379454</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C26" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D26" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E26" t="n">
         <v>147.9587552745337</v>
@@ -6224,22 +6226,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J26" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K26" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L26" t="n">
-        <v>139.8012812763547</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M26" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N26" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O26" t="n">
-        <v>542.9175971897271</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="P26" t="n">
         <v>542.9175971897271</v>
@@ -6251,25 +6253,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S26" t="n">
-        <v>422.159561936012</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T26" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U26" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V26" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W26" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X26" t="n">
-        <v>285.0591586052728</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y26" t="n">
-        <v>285.0591586052728</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C27" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D27" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E27" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F27" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G27" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H27" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I27" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K27" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L27" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M27" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N27" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O27" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P27" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q27" t="n">
         <v>542.9175971897271</v>
@@ -6336,13 +6338,13 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U27" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V27" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W27" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X27" t="n">
         <v>268.7167905282488</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>230.1794491819378</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C28" t="n">
-        <v>230.1794491819378</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D28" t="n">
         <v>147.9587552745337</v>
@@ -6373,7 +6375,7 @@
         <v>147.9587552745337</v>
       </c>
       <c r="G28" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H28" t="n">
         <v>10.85835194379454</v>
@@ -6397,37 +6399,37 @@
         <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P28" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R28" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S28" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T28" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U28" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V28" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W28" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X28" t="n">
-        <v>504.3802558434161</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.2798525126769</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C29" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="D29" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E29" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F29" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G29" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H29" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I29" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J29" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K29" t="n">
-        <v>45.36902758981768</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L29" t="n">
-        <v>179.7411328942751</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M29" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="N29" t="n">
         <v>448.4853435031901</v>
@@ -6494,19 +6496,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U29" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V29" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W29" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X29" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y29" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C30" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D30" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E30" t="n">
         <v>10.85835194379454</v>
@@ -6543,16 +6545,16 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K30" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L30" t="n">
-        <v>205.4846037813581</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M30" t="n">
-        <v>339.8567090858156</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N30" t="n">
-        <v>474.2288143902731</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O30" t="n">
         <v>542.9175971897271</v>
@@ -6573,19 +6575,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U30" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="V30" t="n">
         <v>405.8171938589879</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
+        <v>405.8171938589879</v>
+      </c>
+      <c r="X30" t="n">
         <v>268.7167905282488</v>
       </c>
-      <c r="W30" t="n">
-        <v>131.6163871975096</v>
-      </c>
-      <c r="X30" t="n">
-        <v>131.6163871975096</v>
-      </c>
       <c r="Y30" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.7167905282487</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C31" t="n">
-        <v>131.6163871975095</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D31" t="n">
         <v>10.85835194379454</v>
@@ -6619,10 +6621,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J31" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L31" t="n">
         <v>145.0696190886975</v>
@@ -6631,40 +6633,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N31" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O31" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P31" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q31" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R31" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S31" t="n">
-        <v>405.8171938589878</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T31" t="n">
-        <v>405.8171938589878</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U31" t="n">
-        <v>405.8171938589878</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V31" t="n">
-        <v>405.8171938589878</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W31" t="n">
-        <v>405.8171938589878</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X31" t="n">
-        <v>405.8171938589878</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y31" t="n">
-        <v>405.8171938589878</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C32" t="n">
-        <v>422.159561936012</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D32" t="n">
-        <v>422.159561936012</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E32" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F32" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G32" t="n">
         <v>10.85835194379454</v>
@@ -6698,52 +6700,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J32" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K32" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L32" t="n">
-        <v>145.230457248252</v>
+        <v>351.601106825515</v>
       </c>
       <c r="M32" t="n">
-        <v>274.1733865808121</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="N32" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V32" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W32" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X32" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y32" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>346.0329249539337</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C33" t="n">
-        <v>282.6525533246594</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D33" t="n">
-        <v>145.5521499939202</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5521499939202</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F33" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G33" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H33" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I33" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J33" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K33" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L33" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M33" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N33" t="n">
-        <v>139.8012812763547</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O33" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="P33" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q33" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R33" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S33" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T33" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U33" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V33" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W33" t="n">
-        <v>346.0329249539337</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X33" t="n">
-        <v>346.0329249539337</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y33" t="n">
-        <v>346.0329249539337</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="C34" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E34" t="n">
         <v>10.85835194379454</v>
@@ -6877,31 +6879,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q34" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R34" t="n">
-        <v>367.2798525126768</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S34" t="n">
-        <v>367.2798525126768</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T34" t="n">
-        <v>367.2798525126768</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1794491819377</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V34" t="n">
-        <v>147.9587552745337</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W34" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X34" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C35" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D35" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E35" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F35" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G35" t="n">
         <v>10.85835194379454</v>
@@ -6935,52 +6937,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J35" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K35" t="n">
-        <v>139.8012812763547</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L35" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M35" t="n">
-        <v>408.5454918852696</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N35" t="n">
-        <v>542.9175971897271</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O35" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P35" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R35" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S35" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X35" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y35" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C36" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D36" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E36" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F36" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G36" t="n">
         <v>10.85835194379454</v>
@@ -7014,52 +7016,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K36" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L36" t="n">
-        <v>145.230457248252</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M36" t="n">
-        <v>279.6025625527094</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N36" t="n">
-        <v>279.6025625527094</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O36" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R36" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S36" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T36" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U36" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V36" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W36" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X36" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y36" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G37" t="n">
         <v>10.85835194379454</v>
@@ -7096,7 +7098,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L37" t="n">
         <v>145.0696190886975</v>
@@ -7114,31 +7116,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q37" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R37" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S37" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T37" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U37" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V37" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C38" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D38" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E38" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="F38" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G38" t="n">
-        <v>131.6163871975096</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H38" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I38" t="n">
         <v>10.85835194379454</v>
@@ -7175,49 +7177,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K38" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L38" t="n">
-        <v>82.85689621660021</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="M38" t="n">
-        <v>82.85689621660021</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="N38" t="n">
-        <v>217.2290015210577</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="O38" t="n">
-        <v>351.6011068255151</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P38" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W38" t="n">
-        <v>405.8171938589879</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X38" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y38" t="n">
-        <v>268.7167905282488</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C39" t="n">
         <v>10.85835194379454</v>
@@ -7254,49 +7256,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K39" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L39" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M39" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N39" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U39" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V39" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W39" t="n">
-        <v>268.7167905282488</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X39" t="n">
-        <v>131.6163871975096</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y39" t="n">
-        <v>131.6163871975096</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.7167905282487</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C40" t="n">
-        <v>131.6163871975095</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D40" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E40" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F40" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G40" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H40" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I40" t="n">
         <v>10.85835194379454</v>
@@ -7363,19 +7365,19 @@
         <v>542.917597189727</v>
       </c>
       <c r="U40" t="n">
-        <v>405.8171938589878</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V40" t="n">
-        <v>405.8171938589878</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W40" t="n">
-        <v>268.7167905282487</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X40" t="n">
-        <v>268.7167905282487</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y40" t="n">
-        <v>268.7167905282487</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="C41" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="D41" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="E41" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="F41" t="n">
+        <v>422.159561936012</v>
+      </c>
+      <c r="G41" t="n">
         <v>285.0591586052728</v>
-      </c>
-      <c r="C41" t="n">
-        <v>285.0591586052728</v>
-      </c>
-      <c r="D41" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="E41" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="F41" t="n">
-        <v>147.9587552745337</v>
-      </c>
-      <c r="G41" t="n">
-        <v>147.9587552745337</v>
       </c>
       <c r="H41" t="n">
         <v>147.9587552745337</v>
@@ -7409,52 +7411,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J41" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K41" t="n">
-        <v>139.8012812763547</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="L41" t="n">
-        <v>274.1733865808121</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="M41" t="n">
-        <v>408.5454918852696</v>
+        <v>351.601106825515</v>
       </c>
       <c r="N41" t="n">
-        <v>542.9175971897271</v>
+        <v>485.9732121299725</v>
       </c>
       <c r="O41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V41" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W41" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="X41" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="Y41" t="n">
         <v>422.159561936012</v>
-      </c>
-      <c r="X41" t="n">
-        <v>285.0591586052728</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>282.6525533246594</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C42" t="n">
-        <v>282.6525533246594</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D42" t="n">
-        <v>282.6525533246594</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F42" t="n">
         <v>10.85835194379454</v>
@@ -7488,52 +7490,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J42" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K42" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L42" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M42" t="n">
-        <v>145.230457248252</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N42" t="n">
-        <v>279.6025625527094</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O42" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P42" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S42" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T42" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U42" t="n">
-        <v>405.8171938589879</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V42" t="n">
-        <v>282.6525533246594</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W42" t="n">
-        <v>282.6525533246594</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X42" t="n">
-        <v>282.6525533246594</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y42" t="n">
-        <v>282.6525533246594</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>230.1794491819378</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D43" t="n">
-        <v>230.1794491819378</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E43" t="n">
-        <v>93.0790458511986</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F43" t="n">
         <v>10.85835194379454</v>
@@ -7579,40 +7581,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N43" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O43" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q43" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R43" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S43" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T43" t="n">
-        <v>367.2798525126769</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U43" t="n">
-        <v>230.1794491819378</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V43" t="n">
-        <v>230.1794491819378</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W43" t="n">
-        <v>230.1794491819378</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X43" t="n">
-        <v>230.1794491819378</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y43" t="n">
-        <v>230.1794491819378</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>178.078504024102</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>351.0348386345984</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>351.0348386345984</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>213.9344353038592</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>213.9344353038592</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>339.8567090858155</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>482.2168005218392</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>345.1163971911001</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>208.015993860361</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
   </sheetData>
@@ -9401,16 +9403,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>276.6858693050315</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L20" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1275134696619</v>
+        <v>284.2609795032149</v>
       </c>
       <c r="O20" t="n">
         <v>322.6841960775522</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L23" t="n">
-        <v>226.4194804924309</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M23" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N23" t="n">
-        <v>322.1275134696619</v>
+        <v>284.2609795032149</v>
       </c>
       <c r="O23" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
         <v>187.8768090511565</v>
@@ -9720,7 +9722,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>242.82081673535</v>
       </c>
       <c r="M24" t="n">
         <v>251.2133018590717</v>
@@ -9732,10 +9734,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>239.0995891883455</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9808,7 +9810,7 @@
         <v>223.3630318978003</v>
       </c>
       <c r="O25" t="n">
-        <v>211.9541662756472</v>
+        <v>211.9541662756473</v>
       </c>
       <c r="P25" t="n">
         <v>175.5085323082534</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K26" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L26" t="n">
-        <v>249.0797930315535</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
         <v>322.8857137945909</v>
@@ -9890,7 +9892,7 @@
         <v>322.6841960775522</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>318.1221922153587</v>
       </c>
       <c r="Q26" t="n">
         <v>180.6233730229902</v>
@@ -9951,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>184.8665114499772</v>
+        <v>245.7292857258421</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P27" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q27" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>213.682272303363</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L29" t="n">
         <v>327.2896114605464</v>
       </c>
       <c r="M29" t="n">
-        <v>322.8857137945909</v>
+        <v>285.0191798281439</v>
       </c>
       <c r="N29" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
         <v>186.9547967801205</v>
@@ -10191,7 +10193,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>181.378778055004</v>
       </c>
       <c r="L30" t="n">
         <v>248.3048328685796</v>
@@ -10203,7 +10205,7 @@
         <v>242.4445403651401</v>
       </c>
       <c r="O30" t="n">
-        <v>185.2420574994484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
         <v>108.8542060241433</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L32" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M32" t="n">
-        <v>317.4016976613613</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N32" t="n">
-        <v>322.1275134696619</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O32" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P32" t="n">
         <v>187.8768090511565</v>
@@ -10425,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>236.9605242319105</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>251.5888479085429</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P33" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K35" t="n">
-        <v>236.3425848424856</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1275134696619</v>
+        <v>221.2573825015464</v>
       </c>
       <c r="O35" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,28 +10664,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>248.3048328685796</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M36" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>246.1048317753133</v>
+        <v>185.2420574994485</v>
       </c>
       <c r="P36" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,22 +10825,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5602121631146</v>
+        <v>289.4230774940993</v>
       </c>
       <c r="M38" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O38" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7396743821413</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10902,19 +10904,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L39" t="n">
-        <v>181.9580424594851</v>
+        <v>181.9580424594852</v>
       </c>
       <c r="M39" t="n">
-        <v>251.2133018590717</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N39" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P39" t="n">
         <v>108.8542060241433</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>309.0683871382489</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L41" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M41" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>244.4743776485593</v>
       </c>
       <c r="P41" t="n">
         <v>187.8768090511565</v>
@@ -11136,28 +11138,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>242.4445403651401</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O42" t="n">
-        <v>246.1048317753133</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P42" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11227,7 +11229,7 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
-        <v>223.3630318978004</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
         <v>211.9541662756472</v>
@@ -11303,19 +11305,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,13 +11375,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M45" t="n">
         <v>115.4839025616399</v>
@@ -11388,13 +11390,13 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>178.2368149124807</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>242.3850217830889</v>
       </c>
       <c r="D20" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -24020,7 +24022,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
@@ -24029,13 +24031,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.0559819687424</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24050,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>40.53618113027693</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -24066,7 +24068,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>58.40328726990825</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -24175,19 +24177,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>75.84326567291754</v>
+        <v>92.02221006917138</v>
       </c>
       <c r="T22" t="n">
-        <v>111.2967087513001</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U22" t="n">
         <v>148.5889378183593</v>
       </c>
       <c r="V22" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>258.5639661793427</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>382.1243954182812</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24266,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E24" t="n">
-        <v>26.00727494251956</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>67.07718629177403</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24348,10 +24350,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -24409,25 +24411,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T25" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V25" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>147.5654381703431</v>
+        <v>163.744382566597</v>
       </c>
       <c r="X25" t="n">
-        <v>109.3894845624002</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24449,7 +24451,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>271.2874077937763</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
@@ -24491,10 +24493,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>65.80623071477164</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
@@ -24506,7 +24508,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>38.27479345227034</v>
       </c>
       <c r="C27" t="n">
         <v>24.35723673402308</v>
       </c>
       <c r="D27" t="n">
-        <v>85.59825819535173</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -24540,7 +24542,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24585,7 +24587,7 @@
         <v>103.1733107815913</v>
       </c>
       <c r="X27" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.99041570010425</v>
+        <v>62.1693600963582</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>70.14268727218487</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24613,10 +24615,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H28" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
         <v>142.7610139533483</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24652,7 +24654,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U28" t="n">
         <v>284.3183371157911</v>
@@ -24680,7 +24682,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -24689,16 +24691,16 @@
         <v>255.1084633975224</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>51.53857190211403</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>132.786028021968</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24743,7 +24745,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24759,13 +24761,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>40.53618113027693</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -24813,19 +24815,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>90.38226702871759</v>
       </c>
       <c r="W30" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y30" t="n">
-        <v>190.5961130869169</v>
+        <v>71.04565818573901</v>
       </c>
     </row>
     <row r="31">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>32.19041054550473</v>
       </c>
       <c r="D31" t="n">
-        <v>31.99071933933709</v>
+        <v>31.99071933933698</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
@@ -24898,7 +24900,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24917,19 +24919,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>258.5639661793427</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>274.2802794854996</v>
+        <v>290.4592238817535</v>
       </c>
       <c r="G32" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -24977,13 +24979,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24998,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>97.34006811847324</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>47.08648643443071</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -25059,10 +25061,10 @@
         <v>103.1733107815913</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="34">
@@ -25075,13 +25077,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>31.99071933933705</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>14.7595247988626</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>12.2971642743338</v>
+        <v>12.29716427433382</v>
       </c>
       <c r="S34" t="n">
         <v>211.5726649703493</v>
@@ -25129,13 +25131,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>176.7294644288317</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.552649221661</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25202,10 +25204,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>65.80623071477176</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
@@ -25220,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>22.09584905601653</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -25245,7 +25247,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>7.890760075770345</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -25281,25 +25283,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>60.20841894355158</v>
+        <v>76.3873633398055</v>
       </c>
       <c r="Y36" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -25324,7 +25326,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>47.68009624465066</v>
       </c>
       <c r="H37" t="n">
         <v>157.7789187685189</v>
@@ -25363,16 +25365,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>148.5889378183593</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V37" t="n">
-        <v>122.3985520997298</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W37" t="n">
-        <v>163.744382566597</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -25400,16 +25402,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G38" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>209.942606757486</v>
       </c>
       <c r="I38" t="n">
-        <v>51.53857190211403</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,13 +25453,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>242.4804397762898</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>38.27479345227043</v>
       </c>
       <c r="C39" t="n">
-        <v>40.53618113027693</v>
+        <v>24.3572367340231</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -25524,19 +25526,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V39" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>60.20841894355158</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25551,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>31.99071933933709</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -25567,7 +25569,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -25603,7 +25605,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>148.5889378183593</v>
+        <v>164.7678822146133</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25615,7 +25617,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>84.08540792221393</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>233.3663258276169</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -25640,13 +25642,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>193.7636623612321</v>
       </c>
       <c r="I41" t="n">
-        <v>35.35962750586017</v>
+        <v>35.3596275058602</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25688,13 +25690,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>329.0910295789022</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>270.0559819687425</v>
       </c>
     </row>
     <row r="42">
@@ -25707,16 +25709,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>40.53618113027701</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -25755,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>15.54209281995534</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -25764,13 +25766,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>104.1786721971641</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -25786,16 +25788,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>48.36935494175867</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>69.55736145615064</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>167.2305511458285</v>
@@ -25828,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U43" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25880,7 +25882,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>299.6745103965911</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25919,13 +25921,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>103.5907166813027</v>
       </c>
       <c r="C45" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25962,7 +25964,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -26044,7 +26046,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>170.7533749512691</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400510.3957838474</v>
+        <v>400510.3957838473</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400510.395783848</v>
+        <v>400510.3957838475</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400510.3957838474</v>
+        <v>400510.3957838475</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400510.3957838475</v>
+        <v>400510.3957838474</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400510.3957838474</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>36297.99208473347</v>
       </c>
       <c r="C2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="D2" t="n">
         <v>36297.99208473348</v>
@@ -26323,10 +26325,10 @@
         <v>36297.99208473348</v>
       </c>
       <c r="F2" t="n">
+        <v>36297.99208473347</v>
+      </c>
+      <c r="G2" t="n">
         <v>36297.99208473348</v>
-      </c>
-      <c r="G2" t="n">
-        <v>36297.99208473347</v>
       </c>
       <c r="H2" t="n">
         <v>51678.76074630291</v>
@@ -26335,25 +26337,25 @@
         <v>51678.76074630291</v>
       </c>
       <c r="J2" t="n">
-        <v>51678.76074630291</v>
+        <v>51678.7607463029</v>
       </c>
       <c r="K2" t="n">
-        <v>51678.76074630291</v>
+        <v>51678.7607463029</v>
       </c>
       <c r="L2" t="n">
-        <v>51678.76074630291</v>
+        <v>51678.7607463029</v>
       </c>
       <c r="M2" t="n">
-        <v>51678.76074630291</v>
+        <v>51678.76074630289</v>
       </c>
       <c r="N2" t="n">
-        <v>51678.76074630292</v>
+        <v>51678.76074630288</v>
       </c>
       <c r="O2" t="n">
         <v>51678.7607463029</v>
       </c>
       <c r="P2" t="n">
-        <v>36297.99208473348</v>
+        <v>51678.76074630291</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32082.90102953113</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>117.6979542513729</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>117.6979542513729</v>
       </c>
     </row>
     <row r="5">
@@ -26497,19 +26499,19 @@
         <v>8252.347477283851</v>
       </c>
       <c r="L5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="M5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="N5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="O5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283849</v>
       </c>
     </row>
     <row r="6">
@@ -26522,7 +26524,7 @@
         <v>2670.392084733467</v>
       </c>
       <c r="C6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733481</v>
       </c>
       <c r="D6" t="n">
         <v>2670.392084733481</v>
@@ -26531,37 +26533,37 @@
         <v>36297.99208473348</v>
       </c>
       <c r="F6" t="n">
+        <v>36297.99208473347</v>
+      </c>
+      <c r="G6" t="n">
         <v>36297.99208473348</v>
-      </c>
-      <c r="G6" t="n">
-        <v>36297.99208473347</v>
       </c>
       <c r="H6" t="n">
         <v>6687.701819726915</v>
       </c>
       <c r="I6" t="n">
-        <v>43308.71531476768</v>
+        <v>43308.71531476769</v>
       </c>
       <c r="J6" t="n">
-        <v>43308.71531476769</v>
+        <v>43308.71531476767</v>
       </c>
       <c r="K6" t="n">
-        <v>43308.71531476768</v>
+        <v>43308.71531476767</v>
       </c>
       <c r="L6" t="n">
-        <v>43308.71531476768</v>
+        <v>43308.71531476767</v>
       </c>
       <c r="M6" t="n">
-        <v>43308.71531476769</v>
+        <v>43308.71531476767</v>
       </c>
       <c r="N6" t="n">
-        <v>43308.71531476769</v>
+        <v>43308.71531476766</v>
       </c>
       <c r="O6" t="n">
         <v>43308.71531476767</v>
       </c>
       <c r="P6" t="n">
-        <v>36297.99208473348</v>
+        <v>11225.81428523656</v>
       </c>
     </row>
   </sheetData>
@@ -26817,19 +26819,19 @@
         <v>135.7293992974318</v>
       </c>
       <c r="L4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
   </sheetData>
@@ -36121,16 +36123,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="N20" t="n">
         <v>97.86286533098477</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="O20" t="n">
         <v>135.7293992974318</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>34.85926832931629</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M23" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N23" t="n">
-        <v>135.7293992974318</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="O23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M24" t="n">
         <v>135.7293992974318</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,7 +36530,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>99.45822878352497</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>57.51958086843886</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>135.7293992974318</v>
@@ -36610,7 +36612,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="N27" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="M27" t="n">
-        <v>69.38260888833734</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P27" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36765,7 +36767,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352497</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
         <v>63.604529018321</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>34.85926832931629</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L29" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M29" t="n">
-        <v>135.7293992974318</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="N29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>69.38260888833736</v>
       </c>
       <c r="L30" t="n">
         <v>135.7293992974318</v>
@@ -36923,7 +36925,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="O30" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L32" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M32" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N32" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>135.7293992974318</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>57.51958086843886</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931631</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M36" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>130.2453831642022</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="P36" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,22 +37545,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>97.8628653309848</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37622,19 +37624,19 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L39" t="n">
-        <v>69.38260888833736</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="M39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.7293992974318</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="O42" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37949,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197984</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -38023,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.8592683293163</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
